--- a/Documents/DataDrivenFramework-master/DataDrivenProject/src/test/resources/excel/testdata.xlsx
+++ b/Documents/DataDrivenFramework-master/DataDrivenProject/src/test/resources/excel/testdata.xlsx
@@ -2,20 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\seleniumworkspaces\LiveProjects\PageObjectwithFactories\src\test\resources\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="5370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="SignInTest" sheetId="1" r:id="rId1"/>
-    <sheet name="FlightSearchTest" sheetId="4" r:id="rId2"/>
+    <sheet name="test1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,75 +19,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>runmode</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>trainer@way2automation.com</t>
-  </si>
-  <si>
-    <t>Selenium@123</t>
-  </si>
-  <si>
-    <t>java@way2automation.com</t>
-  </si>
-  <si>
-    <t>Delhi, India (DEL-Indira Gandhi Intl.)</t>
-  </si>
-  <si>
-    <t>fromCity</t>
-  </si>
-  <si>
-    <t>toCity</t>
-  </si>
-  <si>
-    <t>Seattle, WA, United States (SEA-Seattle - Tacoma Intl.)</t>
-  </si>
-  <si>
-    <t>fromDate</t>
-  </si>
-  <si>
-    <t>toDate</t>
-  </si>
-  <si>
-    <t>14/12/2017</t>
-  </si>
-  <si>
-    <t>noOfAdults</t>
-  </si>
-  <si>
-    <t>noOfChildern</t>
-  </si>
-  <si>
-    <t>N</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+  <si>
+    <t>Ref_ID</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Buy_Sell</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Trade_Date</t>
+  </si>
+  <si>
+    <t>Settlement_Date</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Cantor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commission </t>
+  </si>
+  <si>
+    <t>Commission_Type</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>SK20200421_01</t>
+  </si>
+  <si>
+    <t>SK20200421_02</t>
+  </si>
+  <si>
+    <t>SK20200421_03</t>
+  </si>
+  <si>
+    <t>SK20200421_04</t>
+  </si>
+  <si>
+    <t>tsla</t>
+  </si>
+  <si>
+    <t>ctsh</t>
+  </si>
+  <si>
+    <t>aapl</t>
+  </si>
+  <si>
+    <t>Per_Share</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,17 +117,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -188,9 +186,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -223,9 +221,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -405,115 +403,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43942</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43944</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="G2">
+        <v>125.6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>43942</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43944</v>
+      </c>
+      <c r="F3">
+        <v>8000</v>
+      </c>
+      <c r="G3">
+        <v>165.3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>0.3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>43942</v>
+      </c>
+      <c r="E4" s="1">
+        <v>43944</v>
+      </c>
+      <c r="F4">
+        <v>3000</v>
+      </c>
+      <c r="G4">
+        <v>450.6</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>43081</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>43942</v>
+      </c>
+      <c r="E5" s="1">
+        <v>43944</v>
+      </c>
+      <c r="F5">
+        <v>5000</v>
+      </c>
+      <c r="G5">
+        <v>125.6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
         <v>13</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
+      <c r="J5">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
